--- a/Optimization_analysis/optimization_results_from_mt5_time_windows/res/ALL_FILES_MERGED_month_specific_rows.xlsx
+++ b/Optimization_analysis/optimization_results_from_mt5_time_windows/res/ALL_FILES_MERGED_month_specific_rows.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vova deduskin lap\PycharmProjects\1500_count\Optimization_analysis\optimization_results_from_mt5_time_windows\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248B6F5D-3DBB-43EA-B6EC-1791D242E86C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E86A94-D9C2-475C-99DF-8A25621B1527}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -709,9 +709,9 @@
   <dimension ref="A1:X542"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="600" activePane="bottomLeft"/>
-      <selection activeCell="P1" sqref="P1:P1048576"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+      <pane ySplit="600" topLeftCell="A206"/>
+      <selection sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="B224" sqref="B224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
